--- a/books/id.xlsx
+++ b/books/id.xlsx
@@ -1,31 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bharat.Anand\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\C drive\downloads\git\knowledge_dump\books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F245043-3657-4FDC-A3FE-A47B4A7DDC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B07B8EE-D5E4-4E1C-BEF0-5EA5BD4BB3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hanging" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$E$48</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="108">
   <si>
     <t>Name</t>
   </si>
@@ -175,16 +189,301 @@
   </si>
   <si>
     <t>Coke</t>
+  </si>
+  <si>
+    <t>Offer</t>
+  </si>
+  <si>
+    <t>Interview</t>
+  </si>
+  <si>
+    <t>Feedback</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>Slicing of python list, guestimate on number of laptops purchased in Banglore</t>
+  </si>
+  <si>
+    <t>Converting window functions of sql to python</t>
+  </si>
+  <si>
+    <t>1. When is R2 -1 or negative in general
+2. Mathematics for Bias Variance
+3. What are the 3 types of errors in regression?
+4. Define feature importance in Neural Nets and Random Forest
+5. How Adaptive Splines work?
+6. What happens when multicollinear features are added to a XGBoost model?
+7. How beta values change compared to random forest and regression?</t>
+  </si>
+  <si>
+    <t>15.5LPA</t>
+  </si>
+  <si>
+    <t>1. If the data values are not normalised how would feature importance look like
+2. How would you cluster categorical variables?</t>
+  </si>
+  <si>
+    <t>EXL</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Consulting</t>
+  </si>
+  <si>
+    <t>(12.5+1)LPA</t>
+  </si>
+  <si>
+    <t>1. Do a commulative sum on a column with the same ranking as given
+2. Number of flights travelling out of delhi</t>
+  </si>
+  <si>
+    <t>1. How a model works?
+2. Metric you use to define the best fit?
+2. What are its hyper-parameters and how it is used
+3. What type of decision boundary it generates
+4. How do you interpret the feature importance 
+5. What happens in case of multi collienarity
+6. How is regularization taken into account?</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Applied</t>
+  </si>
+  <si>
+    <t>To Be Interviewed</t>
+  </si>
+  <si>
+    <t>Offer Pending</t>
+  </si>
+  <si>
+    <t>Offers</t>
+  </si>
+  <si>
+    <t>DOJ</t>
+  </si>
+  <si>
+    <t>ABinBev</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>McKinsey</t>
+  </si>
+  <si>
+    <t>Meesho</t>
+  </si>
+  <si>
+    <t>Miq</t>
+  </si>
+  <si>
+    <t>Tredence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">House Rent Allowance (HRA) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Travel Allowance₁ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meal Vouchers₂ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Company's Contribution to PF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Special Allowance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixed Compensation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Committed pay </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost to Company (CTC) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic Pay </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Special Allowance/Other Allowance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL CASH COMPONENT (A) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Fixed Cost to Company D = (A+B+C) </t>
+  </si>
+  <si>
+    <t>ctc</t>
+  </si>
+  <si>
+    <t>pf</t>
+  </si>
+  <si>
+    <t>lta</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>Yearly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salary Components </t>
+  </si>
+  <si>
+    <t>800,000</t>
+  </si>
+  <si>
+    <t>400,000</t>
+  </si>
+  <si>
+    <t>675,667</t>
+  </si>
+  <si>
+    <t>1,875,667</t>
+  </si>
+  <si>
+    <t>28,333</t>
+  </si>
+  <si>
+    <t>96,000</t>
+  </si>
+  <si>
+    <t>2,000,000</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Employer Contribution to Employee Provident Fund
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Statutory contribution @ 12% of basic)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(C) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Leave Travel Allowance (LTA) / Reimbursement </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(B) </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Target Variable Compensation (INR) </t>
+  </si>
+  <si>
+    <t>140,000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Carlito-Bold"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Carlito"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri-Bold"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -198,7 +497,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -206,14 +505,141 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -227,6 +653,104 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>179620</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>81644</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>310248</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>140131</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09C984FF-E293-491D-A6AD-03D868C52F60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="179620" y="1796144"/>
+          <a:ext cx="4397828" cy="1909058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>160479</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>39314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>615463</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>78543</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11AC6320-EB3B-4BE7-B20E-53EE2527FE69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3867902" y="2149468"/>
+          <a:ext cx="3752099" cy="229729"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -492,18 +1016,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E48"/>
+  <dimension ref="B2:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="69.7109375" customWidth="1"/>
+    <col min="12" max="12" width="62" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" ht="105">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -516,24 +1045,42 @@
       <c r="E2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12">
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -541,7 +1088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -549,223 +1096,268 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12">
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
       <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="101.25" customHeight="1">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" t="s">
         <v>8</v>
       </c>
-      <c r="C8">
+      <c r="C25">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="26" spans="2:8">
+      <c r="B26" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
+      <c r="C26">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="27" spans="2:8">
+      <c r="B27" t="s">
         <v>10</v>
       </c>
-      <c r="C10">
+      <c r="C27">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="28" spans="2:8" ht="45">
+      <c r="B28" t="s">
         <v>16</v>
       </c>
-      <c r="C15">
+      <c r="C28">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="F28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" t="s">
         <v>17</v>
       </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" t="s">
         <v>21</v>
       </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" t="s">
         <v>22</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>32</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8">
       <c r="B32" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
       <c r="B33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
       <c r="B34" t="s">
         <v>35</v>
       </c>
@@ -773,119 +1365,783 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3">
       <c r="B35" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
       <c r="B36" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
       <c r="B37" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
       <c r="B38" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
       <c r="B39" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C39">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3">
       <c r="B40" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C40">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3">
       <c r="B41" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C41">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3">
       <c r="B42" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C42">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3">
       <c r="B43" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
       <c r="B44" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
       <c r="B45" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="C45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
       <c r="B46" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
       <c r="B47" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
       <c r="B48" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="30">
+      <c r="B49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49" t="s">
+        <v>61</v>
+      </c>
+      <c r="E49" t="s">
+        <v>60</v>
+      </c>
+      <c r="F49" t="s">
+        <v>62</v>
+      </c>
+      <c r="G49" t="s">
+        <v>53</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25BCAAA0-6D85-4C86-B345-7D3BDFE21365}">
+  <dimension ref="C4:R9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:18">
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" t="s">
+        <v>70</v>
+      </c>
+      <c r="R4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="3:18">
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5">
+        <v>15.5</v>
+      </c>
+      <c r="R5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="3:18">
+      <c r="I6" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="7" spans="3:18">
+      <c r="I7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="N7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:18">
+      <c r="I8" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="3:18">
+      <c r="I9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2ADB44-2619-4CC3-82DD-EDDA26811E06}">
+  <dimension ref="B2:U18"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="8" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21">
+      <c r="B2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="6">
+        <v>57812</v>
+      </c>
+      <c r="D2" s="6">
+        <f>ROUND(E2/12, 0)</f>
+        <v>57812</v>
+      </c>
+      <c r="E2" s="6">
+        <v>693745</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11">
+        <v>78679</v>
+      </c>
+      <c r="H2" s="8">
+        <v>944145</v>
+      </c>
+      <c r="J2" s="9">
+        <f>ROUND(K2/12, 0)</f>
+        <v>82433</v>
+      </c>
+      <c r="K2" s="8">
+        <v>989200</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q2">
+        <v>680000</v>
+      </c>
+      <c r="R2">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21">
+      <c r="B3" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="6">
+        <v>28906</v>
+      </c>
+      <c r="D3" s="6">
+        <f t="shared" ref="D3:D8" si="0">ROUND(E3/12, 0)</f>
+        <v>28906</v>
+      </c>
+      <c r="E3" s="6">
+        <v>346873</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11">
+        <v>39339</v>
+      </c>
+      <c r="H3" s="8">
+        <v>472073</v>
+      </c>
+      <c r="J3" s="9">
+        <f t="shared" ref="J3:J8" si="1">ROUND(K3/12, 0)</f>
+        <v>41217</v>
+      </c>
+      <c r="K3" s="8">
+        <v>494600</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q3">
+        <f>0.5*Q2</f>
+        <v>340000</v>
+      </c>
+      <c r="R3">
+        <f>0.5*R2</f>
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21">
+      <c r="B4" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1250</v>
+      </c>
+      <c r="D4" s="6">
+        <f t="shared" si="0"/>
+        <v>1250</v>
+      </c>
+      <c r="E4" s="6">
+        <v>15000</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11">
+        <v>1250</v>
+      </c>
+      <c r="H4" s="8">
+        <v>15000</v>
+      </c>
+      <c r="J4" s="9">
+        <f t="shared" si="1"/>
+        <v>1250</v>
+      </c>
+      <c r="K4" s="8">
+        <v>15000</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4">
+        <v>570067</v>
+      </c>
+      <c r="R4">
+        <v>675667.0588235294</v>
+      </c>
+      <c r="S4">
+        <f>R4+5000</f>
+        <v>680667.0588235294</v>
+      </c>
+      <c r="T4">
+        <v>675667.0588235294</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21">
+      <c r="B5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1100</v>
+      </c>
+      <c r="D5" s="6">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+      <c r="E5" s="6">
+        <v>13200</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11">
+        <v>1100</v>
+      </c>
+      <c r="H5" s="8">
+        <v>13200</v>
+      </c>
+      <c r="J5" s="9">
+        <f t="shared" si="1"/>
+        <v>1100</v>
+      </c>
+      <c r="K5" s="8">
+        <v>13200</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q5">
+        <f>SUM(Q2:Q4)</f>
+        <v>1590067</v>
+      </c>
+      <c r="R5">
+        <f>SUM(R2:R4)</f>
+        <v>1875667.0588235294</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21">
+      <c r="B6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1800</v>
+      </c>
+      <c r="D6" s="6">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+      <c r="E6" s="6">
+        <v>21600</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11">
+        <v>1800</v>
+      </c>
+      <c r="H6" s="8">
+        <v>21600</v>
+      </c>
+      <c r="J6" s="9">
+        <f t="shared" si="1"/>
+        <v>1800</v>
+      </c>
+      <c r="K6" s="8">
+        <v>21600</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q6">
+        <v>28333</v>
+      </c>
+      <c r="R6">
+        <v>28333</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21">
+      <c r="B7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="6">
+        <v>26556</v>
+      </c>
+      <c r="D7" s="6">
+        <f t="shared" si="0"/>
+        <v>26556</v>
+      </c>
+      <c r="E7" s="6">
+        <v>318673</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11">
+        <v>36923</v>
+      </c>
+      <c r="H7" s="8">
+        <v>443073</v>
+      </c>
+      <c r="J7" s="9">
+        <f t="shared" si="1"/>
+        <v>38867</v>
+      </c>
+      <c r="K7" s="8">
+        <v>466400</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q7">
+        <f>0.12*Q2</f>
+        <v>81600</v>
+      </c>
+      <c r="R7">
+        <f>0.12*R2</f>
+        <v>96000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21">
+      <c r="B8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="7">
+        <v>117424</v>
+      </c>
+      <c r="D8" s="6">
+        <f t="shared" si="0"/>
+        <v>117424</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1409091</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11">
+        <v>159091</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1909091</v>
+      </c>
+      <c r="J8" s="9">
+        <f t="shared" si="1"/>
+        <v>166667</v>
+      </c>
+      <c r="K8" s="8">
+        <v>2000000</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q8">
+        <f>SUM(Q5:Q7)</f>
+        <v>1700000</v>
+      </c>
+      <c r="R8">
+        <f>SUM(R5:R7)</f>
+        <v>2000000.0588235294</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21">
+      <c r="B9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="7">
+        <v>140909</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="8">
+        <v>190909</v>
+      </c>
+      <c r="K9" s="8">
+        <v>200000</v>
+      </c>
+      <c r="Q9">
+        <f>0.07*Q8</f>
+        <v>119000.00000000001</v>
+      </c>
+      <c r="R9">
+        <f>0.07*R8</f>
+        <v>140000.00411764707</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21">
+      <c r="B10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1550000</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="8">
+        <v>2100000</v>
+      </c>
+      <c r="K10" s="8">
+        <v>2200000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21">
+      <c r="K11" s="8"/>
+      <c r="U11">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21">
+      <c r="U12">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21">
+      <c r="U13">
+        <v>675667</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21">
+      <c r="U14">
+        <v>1875667</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21">
+      <c r="U15">
+        <v>28333</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21">
+      <c r="U16">
+        <v>96000</v>
+      </c>
+    </row>
+    <row r="17" spans="17:21">
+      <c r="U17">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="18" spans="17:21">
+      <c r="Q18">
+        <f>Q4/Q2</f>
+        <v>0.83833382352941177</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA0C86B-DE6E-4698-A77B-3FFA17BEF322}">
+  <dimension ref="H10:M22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="C15" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23:M23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="0.85546875" customWidth="1"/>
+    <col min="10" max="10" width="47.5703125" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" customWidth="1"/>
+    <col min="12" max="12" width="0.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="8:12" ht="15.75" thickBot="1"/>
+    <row r="11" spans="8:12" ht="15.75" thickBot="1">
+      <c r="H11" s="13"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="8:12" ht="15.75" thickBot="1">
+      <c r="H12" s="14"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="K12" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="8:12" ht="15.75" thickBot="1">
+      <c r="H13" s="14"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="8:12" ht="15.75" thickBot="1">
+      <c r="H14" s="14"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="8:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="H15" s="15"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="L15" s="12"/>
+    </row>
+    <row r="16" spans="8:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="H16" s="15"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="L16" s="12"/>
+    </row>
+    <row r="17" spans="8:13" ht="34.5" customHeight="1" thickBot="1">
+      <c r="H17" s="14"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="L17" s="12"/>
+    </row>
+    <row r="18" spans="8:13" ht="15.75" thickBot="1">
+      <c r="H18" s="15"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="K18" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="L18" s="24"/>
+    </row>
+    <row r="19" spans="8:13">
+      <c r="K19" s="23"/>
+      <c r="L19" s="25"/>
+    </row>
+    <row r="20" spans="8:13">
+      <c r="L20" s="25"/>
+    </row>
+    <row r="21" spans="8:13">
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+    </row>
+    <row r="22" spans="8:13">
+      <c r="L22" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="K12:K18" numberStoredAsText="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4151918-6430-4306-B334-DD77EBB45383}">
+  <dimension ref="G7:J8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="7" max="7" width="0.85546875" customWidth="1"/>
+    <col min="8" max="8" width="49.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="10" max="10" width="0.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="7:10" ht="15.75" thickBot="1"/>
+    <row r="8" spans="7:10" ht="15.75" thickBot="1">
+      <c r="G8" s="16"/>
+      <c r="H8" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="J8" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="I8" numberStoredAsText="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>